--- a/img/pacman_mapping.xlsx
+++ b/img/pacman_mapping.xlsx
@@ -483,7 +483,7 @@
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+      <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2653,11 +2653,11 @@
       <c r="M24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>1</v>
+      <c r="N24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>1</v>
